--- a/tests/multialgorithm/fixtures/validation/cases/stochastic/00021/00021-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/stochastic/00021/00021-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="7100" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="7100" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -320,10 +320,10 @@
     <t>abstract</t>
   </si>
   <si>
-    <t>Volume matters in reactions that aren't order 1</t>
-  </si>
-  <si>
     <t>test_case_00021</t>
+  </si>
+  <si>
+    <t>Volume matters in reactions that aren't order 1; V = 1/NA</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -371,6 +371,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -400,7 +405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -430,6 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -780,7 +786,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1083,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>0.3</v>
@@ -1091,7 +1097,7 @@
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1105,7 +1111,7 @@
         <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>0.1</v>
@@ -1339,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1433,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1447,7 +1453,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1493,16 +1499,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1.6605390404271598E-24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1580,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2"/>
       <c r="F2" s="2">

--- a/tests/multialgorithm/fixtures/validation/cases/stochastic/00021/00021-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/stochastic/00021/00021-wc_lang.xlsx
@@ -400,9 +400,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
@@ -437,9 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
